--- a/论文用图表/表4.1：单变量R2.xlsx
+++ b/论文用图表/表4.1：单变量R2.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhan\Desktop\毕业论文\中国市场\论文用图表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B8115-210E-49CE-A58C-F2ECB2FDB7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F4093-0695-48B5-B832-52ED5998E748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,24 +39,15 @@
     <t>CW-test</t>
   </si>
   <si>
-    <t>D/E2</t>
-  </si>
-  <si>
     <t>D/P</t>
   </si>
   <si>
     <t>D/Y</t>
   </si>
   <si>
-    <t>E2/P</t>
-  </si>
-  <si>
     <t>B/M</t>
   </si>
   <si>
-    <t>SVAR1</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,10 +124,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -123,7 +133,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -133,15 +145,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,156 +446,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G12:I24"/>
+  <dimension ref="F11:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G12" s="3" t="s">
+    <row r="11" spans="6:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.44220363516096</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.6338074644263401</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-3.5627674816519397</v>
+      </c>
+      <c r="I14" s="5">
+        <v>-0.60768347004303702</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-2.9542694918852996</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-0.17012070108455199</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-6.5048845378569098</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-1.4125497690018001</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-5.4893792114386306</v>
+      </c>
+      <c r="I17" s="5">
+        <v>-1.5731588511621899</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.50374176822124E-2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1.6704846952300101</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-4.1634359906650598E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-0.78135197256607203</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-3.4078556647354701E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-0.31740442663716401</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="1" t="s">
+      <c r="H18" s="5">
+        <v>-2.4640494764897198</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.901873436935544</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
-        <v>-7.4699565983421298E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-1.5149949573453501</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G17" s="1" t="s">
+      <c r="H19" s="5">
+        <v>-0.99446709696859803</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.60751192340288496</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="1">
-        <v>-6.7605406415456704E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-1.7163300620753801</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G18" s="1" t="s">
+      <c r="H20" s="5">
+        <v>-0.11822998561961101</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.95474545324788096</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="1">
-        <v>-2.3790640229687399E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-0.84731874864743395</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G19" s="1" t="s">
+      <c r="H21" s="5">
+        <v>2.3034375601438901</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.92025663984338</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="1">
-        <v>-9.3608724560945104E-3</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.63008727012866295</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G20" s="1" t="s">
+      <c r="H22" s="5">
+        <v>-2.1750229618068402</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-1.6141518813256499</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="1">
-        <v>3.82912768617482E-3</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.28154397249417</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G21" s="1" t="s">
+      <c r="H23" s="5">
+        <v>-1.3564001207182401</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.13865771863211901</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="6:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="1">
-        <v>2.4061988036294599E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.9448169381106</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-1.38706944837267E-2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-0.19806649500700901</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-4.9975927462790797E-3</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1.88320687649069</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="2">
-        <v>-3.2862701197594102E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-0.32399343528864399</v>
-      </c>
+      <c r="H24" s="6">
+        <v>-1.26779102181655</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-1.65571042198181</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
